--- a/Dscreen/Trend Analysis/Trend Analysis_Annaul mean_and__Monthly_Mean.xlsx
+++ b/Dscreen/Trend Analysis/Trend Analysis_Annaul mean_and__Monthly_Mean.xlsx
@@ -5,33 +5,34 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\01Andhikhola_working\Dscreen\Trend Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\01Andhikhola_working\Andhikhola\Dscreen\Trend Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="844"/>
   </bookViews>
   <sheets>
-    <sheet name="Mean annaul average" sheetId="13" r:id="rId1"/>
-    <sheet name="Baishakh" sheetId="10" r:id="rId2"/>
-    <sheet name="Jestha" sheetId="11" r:id="rId3"/>
-    <sheet name="Ashadh" sheetId="12" r:id="rId4"/>
-    <sheet name="Shrawan" sheetId="1" r:id="rId5"/>
-    <sheet name="Bhadra" sheetId="2" r:id="rId6"/>
-    <sheet name="Ashwin" sheetId="3" r:id="rId7"/>
-    <sheet name="Kartik" sheetId="4" r:id="rId8"/>
-    <sheet name="Mangsir" sheetId="5" r:id="rId9"/>
-    <sheet name="Poush" sheetId="6" r:id="rId10"/>
-    <sheet name="Magh" sheetId="7" r:id="rId11"/>
-    <sheet name="Falgun" sheetId="8" r:id="rId12"/>
-    <sheet name="Chaitra" sheetId="9" r:id="rId13"/>
+    <sheet name="Summary" sheetId="14" r:id="rId1"/>
+    <sheet name="Mean annaul average" sheetId="13" r:id="rId2"/>
+    <sheet name="Baishakh" sheetId="10" r:id="rId3"/>
+    <sheet name="Jestha" sheetId="11" r:id="rId4"/>
+    <sheet name="Ashadh" sheetId="12" r:id="rId5"/>
+    <sheet name="Shrawan" sheetId="1" r:id="rId6"/>
+    <sheet name="Bhadra" sheetId="2" r:id="rId7"/>
+    <sheet name="Ashwin" sheetId="3" r:id="rId8"/>
+    <sheet name="Kartik" sheetId="4" r:id="rId9"/>
+    <sheet name="Mangsir" sheetId="5" r:id="rId10"/>
+    <sheet name="Poush" sheetId="6" r:id="rId11"/>
+    <sheet name="Magh" sheetId="7" r:id="rId12"/>
+    <sheet name="Falgun" sheetId="8" r:id="rId13"/>
+    <sheet name="Chaitra" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="280">
   <si>
     <t>Shrawan</t>
   </si>
@@ -708,9 +709,6 @@
     <t>10-years moving average</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>File: 'D:\...'TS_Andhikhola_Q_ann 2.txt'</t>
   </si>
   <si>
@@ -823,16 +821,68 @@
   </si>
   <si>
     <t xml:space="preserve">    R-squared:     0.9353    Adj R-squared: 0.9272</t>
+  </si>
+  <si>
+    <t>Mann-Kendall's statistical value</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Mean Annual Discharge</t>
+  </si>
+  <si>
+    <t>5-Years moving average</t>
+  </si>
+  <si>
+    <t>10-Years moving average</t>
+  </si>
+  <si>
+    <t>Karkit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Apparent trend</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    p    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;0.0001 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.06257 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.06738 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,31 +899,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -915,28 +952,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,6 +990,1326 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean Annual Discharge of AndhiKhola</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10013070776878508"/>
+          <c:y val="9.855310810184606E-2"/>
+          <c:w val="0.80814299062361272"/>
+          <c:h val="0.75398872179111087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Mean annaul average'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean annual discharge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean annaul average'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>61-62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62-63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63-64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64-65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65-66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66-67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67-68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68-69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69-70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70-71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71-72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72-73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73-74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74-75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75-76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76-77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77-78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78-79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79-80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Mean annaul average'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>29.654643121987391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.668860437964582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.553013511983792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.47385383450748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.899526713985555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.071851712796693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.341171359203706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.400758023112282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.206238151925209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.425330622671442</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.826605006173835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.171111453205519</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.700658895387296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.159499386512433</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.178830565056334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.43022497840392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DADB-4D45-8EB7-BE0E5F2D1B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5-Years Moving Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Mean annaul average'!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>27.249979524085763</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>28.333421242247617</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>31.467883426495444</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>33.437432328721144</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>34.42832695227456</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>36.604593698370898</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>37.370964691157994</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>26.803498087518747</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>24.315784387298326</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>23.152724593590165</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>22.157321308494005</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>21.865988825872662</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>23.456641072790106</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>23.207341061267083</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>26.128065055713101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DADB-4D45-8EB7-BE0E5F2D1B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10-Years Moving Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Mean annaul average'!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>30.757959839442687</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>30.915576513364869</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>30.135201901073533</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>30.831247202600341</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>29.595925941409821</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>28.349009475584101</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>26.295981930239897</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>24.412885934141148</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>23.524039154418865</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>25.012312382416997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DADB-4D45-8EB7-BE0E5F2D1B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="110465023"/>
+        <c:axId val="110477087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110465023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fiscal Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110477087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110477087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Discharge (m3/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110465023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61420160582189398"/>
+          <c:y val="0.11371377089266807"/>
+          <c:w val="0.24433049310022634"/>
+          <c:h val="0.14836334083075201"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3452812</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1241,800 +2599,1001 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="4" customWidth="1"/>
-    <col min="4" max="8" width="8.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="55.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="54.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="56.140625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="10" t="str">
-        <f>C1</f>
-        <v>5-years moving average</v>
-      </c>
-      <c r="G1" s="10" t="str">
-        <f>E1</f>
-        <v>year</v>
-      </c>
-      <c r="H1" s="10" t="str">
-        <f>D1</f>
-        <v>10-years moving average</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>'Mean annaul average'!I30</f>
+        <v xml:space="preserve">    S    =       -25</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>'Mean annaul average'!I31</f>
+        <v xml:space="preserve">    tau  =   -0.2381</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>'Mean annaul average'!I32</f>
+        <v xml:space="preserve">    p    =    0.2365</v>
+      </c>
+      <c r="E2" s="13">
+        <v>-0.40539999999999998</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>'Mean annaul average'!I38</f>
+        <v xml:space="preserve">    Slope    -0.4054    0.3631    -1.116    0.2844</v>
+      </c>
+      <c r="I2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J2">
+        <v>-0.40539999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.36309999999999998</v>
+      </c>
+      <c r="L2">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.28439999999999999</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P2">
+        <v>0.23649999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>'Mean annaul average'!J41</f>
+        <v xml:space="preserve">    S    =       -15</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f>'Mean annaul average'!J42</f>
+        <v xml:space="preserve">    tau  =   -0.1429</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>'Mean annaul average'!J43</f>
+        <v xml:space="preserve">    p    =    0.4923</v>
+      </c>
+      <c r="E3" s="13">
+        <v>-0.85140000000000005</v>
+      </c>
+      <c r="H3" t="str">
+        <f>'Mean annaul average'!J49</f>
+        <v xml:space="preserve">    Slope    -0.8514    0.3828    -2.224   0.04447 **</v>
+      </c>
+      <c r="I3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3">
+        <v>-0.85140000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="L3">
+        <v>-2.2240000000000002</v>
+      </c>
+      <c r="M3">
+        <v>4.4470000000000003E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P3">
+        <v>0.49230000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>'Mean annaul average'!K31</f>
+        <v xml:space="preserve">    S    =       -41</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>'Mean annaul average'!K32</f>
+        <v xml:space="preserve">    tau  =   -0.9111</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>'Mean annaul average'!K33</f>
+        <v xml:space="preserve">    p    =   &lt;0.0001 ***</v>
+      </c>
+      <c r="E4" s="13">
+        <v>-0.72550000000000003</v>
+      </c>
+      <c r="H4" t="str">
+        <f>'Mean annaul average'!K39</f>
+        <v xml:space="preserve">    Slope    -0.7255   0.06745    -10.76   &lt;0.0001 ***</v>
+      </c>
+      <c r="I4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4">
+        <v>-0.72550000000000003</v>
+      </c>
+      <c r="K4">
+        <v>6.7449999999999996E-2</v>
+      </c>
+      <c r="L4">
+        <v>-10.76</v>
+      </c>
+      <c r="M4" t="s">
+        <v>274</v>
+      </c>
+      <c r="N4" t="s">
+        <v>275</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>Baishakh!D32</f>
+        <v xml:space="preserve">    S    =        42</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>Baishakh!D33</f>
+        <v xml:space="preserve">    tau  =    0.3500</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>Baishakh!D34</f>
+        <v xml:space="preserve">    p    =   0.06257 *</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="H5" t="str">
+        <f>Baishakh!D40</f>
+        <v xml:space="preserve">    Slope     0.1485   0.06662     2.229   0.04268 **</v>
+      </c>
+      <c r="I5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="K5">
+        <v>6.6619999999999999E-2</v>
+      </c>
+      <c r="L5">
+        <v>2.2290000000000001</v>
+      </c>
+      <c r="M5">
+        <v>4.2680000000000003E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>Jestha!D31</f>
+        <v xml:space="preserve">    S    =        31</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>Jestha!D32</f>
+        <v xml:space="preserve">    tau  =    0.2594</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>Jestha!D35</f>
+        <v xml:space="preserve">    p    =    0.1764</v>
+      </c>
+      <c r="E6" s="13">
+        <v>-1.668E-2</v>
+      </c>
+      <c r="H6" t="str">
+        <f>Jestha!D41</f>
+        <v xml:space="preserve">    Slope   -0.01668    0.5353  -0.03115    0.9756</v>
+      </c>
+      <c r="I6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6">
+        <v>-1.668E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.5353</v>
+      </c>
+      <c r="L6">
+        <v>-3.1150000000000001E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P6">
+        <v>0.1764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>Ashadh!D29</f>
+        <v xml:space="preserve">    S    =        12</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>Ashadh!D30</f>
+        <v xml:space="preserve">    tau  =    0.1000</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>Ashadh!D31</f>
+        <v xml:space="preserve">    p    =    0.6238</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="H7" t="str">
+        <f>Ashadh!D37</f>
+        <v xml:space="preserve">    Slope     0.3432     1.087    0.3158    0.7568</v>
+      </c>
+      <c r="I7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J7">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="K7">
+        <v>1.087</v>
+      </c>
+      <c r="L7">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="M7">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P7">
+        <v>0.62380000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>Shrawan!D29</f>
+        <v xml:space="preserve">    S    =       -20</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>Shrawan!D30</f>
+        <v xml:space="preserve">    tau  =   -0.1471</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>Shrawan!D31</f>
+        <v xml:space="preserve">    p    =    0.4372</v>
+      </c>
+      <c r="E8" s="13">
+        <v>-1.5349999999999999</v>
+      </c>
+      <c r="H8" t="str">
+        <f>Shrawan!D38</f>
+        <v xml:space="preserve">    Slope     -1.535     1.574   -0.9749    0.3451</v>
+      </c>
+      <c r="I8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J8">
+        <v>-1.5349999999999999</v>
+      </c>
+      <c r="K8">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="L8">
+        <v>-0.97489999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P8">
+        <v>0.43719999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>Bhadra!D29</f>
+        <v xml:space="preserve">    S    =       -74</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f>Bhadra!D30</f>
+        <v xml:space="preserve">    tau  =   -0.5441</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>Bhadra!D31</f>
+        <v xml:space="preserve">    p    =  0.06738 *</v>
+      </c>
+      <c r="E9" s="13">
+        <v>-4.1740000000000004</v>
+      </c>
+      <c r="H9" t="str">
+        <f>Bhadra!D37</f>
+        <v xml:space="preserve">    Slope     -4.174     1.250    -3.339  0.004489 ***</v>
+      </c>
+      <c r="I9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9">
+        <v>-4.1740000000000004</v>
+      </c>
+      <c r="K9">
+        <v>1.25</v>
+      </c>
+      <c r="L9">
+        <v>-3.339</v>
+      </c>
+      <c r="M9">
+        <v>4.4889999999999999E-3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>275</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>Ashwin!D29</f>
+        <v xml:space="preserve">    S    =         2</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f>Ashwin!D30</f>
+        <v xml:space="preserve">    tau  =   0.01471</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>Ashwin!D31</f>
+        <v xml:space="preserve">    p    =    0.9675</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5.0189999999999999E-2</v>
+      </c>
+      <c r="H10" t="str">
+        <f>Ashwin!D37</f>
+        <v xml:space="preserve">    Slope    0.05019    0.8048   0.06237    0.9511</v>
+      </c>
+      <c r="I10" t="s">
+        <v>272</v>
+      </c>
+      <c r="J10">
+        <v>5.0189999999999999E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="L10">
+        <v>6.2370000000000002E-2</v>
+      </c>
+      <c r="M10">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P10">
+        <v>0.96750000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>Kartik!D29</f>
+        <v xml:space="preserve">    S    =       -22</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>Kartik!D30</f>
+        <v xml:space="preserve">    tau  =   -0.1618</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>Kartik!D31</f>
+        <v xml:space="preserve">    p    =    0.3901</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2.7210000000000002E-2</v>
+      </c>
+      <c r="H11" t="str">
+        <f>Kartik!D37</f>
+        <v xml:space="preserve">    Slope    0.02721    0.3096   0.08790    0.9311</v>
+      </c>
+      <c r="I11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J11">
+        <v>2.7210000000000002E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="L11">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11">
+        <v>0.3901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>Mangsir!D29</f>
+        <v xml:space="preserve">    S    =       -21</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>Mangsir!D30</f>
+        <v xml:space="preserve">    tau  =   -0.2000</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>Mangsir!D31</f>
+        <v xml:space="preserve">    p    =    0.3252</v>
+      </c>
+      <c r="E12" s="13">
+        <v>-4.679E-3</v>
+      </c>
+      <c r="H12" t="str">
+        <f>Mangsir!D37</f>
+        <v xml:space="preserve">    Slope  -0.004679   0.08893  -0.05261    0.9588</v>
+      </c>
+      <c r="I12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J12">
+        <v>-4.679E-3</v>
+      </c>
+      <c r="K12">
+        <v>8.8929999999999995E-2</v>
+      </c>
+      <c r="L12">
+        <v>-5.2609999999999997E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P12">
+        <v>0.32519999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>Poush!D38</f>
+        <v xml:space="preserve">    S    =       -22</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>Poush!D39</f>
+        <v xml:space="preserve">    tau  =   -0.1833</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f>Poush!D40</f>
+        <v xml:space="preserve">    p    =    0.3474</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3.2620000000000003E-2</v>
+      </c>
+      <c r="H13" t="str">
+        <f>Poush!D46</f>
+        <v xml:space="preserve">    Slope    0.03262   0.07622    0.4279    0.6752</v>
+      </c>
+      <c r="I13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J13">
+        <v>3.2620000000000003E-2</v>
+      </c>
+      <c r="K13">
+        <v>7.6219999999999996E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.4279</v>
+      </c>
+      <c r="M13">
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P13">
+        <v>0.34739999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>Magh!D29</f>
+        <v xml:space="preserve">    S    =        13</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>Magh!D30</f>
+        <v xml:space="preserve">    tau  =    0.1429</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f>Magh!D31</f>
+        <v xml:space="preserve">    p    =    0.5154</v>
+      </c>
+      <c r="E14" s="13">
+        <v>7.1790000000000007E-2</v>
+      </c>
+      <c r="H14" t="str">
+        <f>Magh!D37</f>
+        <v xml:space="preserve">    Slope    0.07179    0.1085    0.6615    0.5208</v>
+      </c>
+      <c r="I14" t="s">
+        <v>272</v>
+      </c>
+      <c r="J14">
+        <v>7.1790000000000007E-2</v>
+      </c>
+      <c r="K14">
+        <v>0.1085</v>
+      </c>
+      <c r="L14">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P14">
+        <v>0.51539999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>Falgun!D29</f>
+        <v xml:space="preserve">    S    =        13</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>Falgun!D30</f>
+        <v xml:space="preserve">    tau  =    0.1238</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f>Falgun!D31</f>
+        <v xml:space="preserve">    p    =    0.5565</v>
+      </c>
+      <c r="E15" s="13">
+        <v>3.9820000000000001E-2</v>
+      </c>
+      <c r="H15" t="str">
+        <f>Falgun!D37</f>
+        <v xml:space="preserve">    Slope    0.03982   0.04239    0.9395    0.3646</v>
+      </c>
+      <c r="I15" t="s">
+        <v>272</v>
+      </c>
+      <c r="J15">
+        <v>3.9820000000000001E-2</v>
+      </c>
+      <c r="K15">
+        <v>4.2389999999999997E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.9395</v>
+      </c>
+      <c r="M15">
+        <v>0.36459999999999998</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P15">
+        <v>0.55649999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>Chaitra!D29</f>
+        <v xml:space="preserve">    S    =        28</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>Chaitra!D30</f>
+        <v xml:space="preserve">    tau  =    0.2333</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f>Chaitra!D31</f>
+        <v xml:space="preserve">    p    =    0.2254</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3.8620000000000002E-2</v>
+      </c>
+      <c r="H16" t="str">
+        <f>Chaitra!D37</f>
+        <v xml:space="preserve">    Slope    0.03862   0.02723     1.419    0.1779</v>
+      </c>
+      <c r="I16" t="s">
+        <v>272</v>
+      </c>
+      <c r="J16">
+        <v>3.8620000000000002E-2</v>
+      </c>
+      <c r="K16">
+        <v>2.7230000000000001E-2</v>
+      </c>
+      <c r="L16">
+        <v>1.419</v>
+      </c>
+      <c r="M16">
+        <v>0.1779</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P16">
+        <v>0.22539999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7.8793103448275863</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
-        <v>29.654643121987391</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>2065</v>
-      </c>
-      <c r="F2" s="9">
-        <v>27.249979524085763</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2070</v>
-      </c>
-      <c r="H2" s="9">
-        <f>AVERAGE(F2:F7)</f>
-        <v>34.062834637536618</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7.4399999999999977</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
-        <v>25.668860437964582</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>2066</v>
-      </c>
-      <c r="F3" s="9">
-        <v>28.333421242247617</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2071</v>
-      </c>
-      <c r="H3" s="9">
-        <f>AVERAGE(F2:F8)</f>
-        <v>34.572189058039648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.8239285714285716</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
-        <v>23.553013511983792</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>2067</v>
-      </c>
-      <c r="F4" s="9">
-        <v>31.467883426495444</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2072</v>
-      </c>
-      <c r="H4" s="9">
-        <f>AVERAGE(F2:F9)</f>
-        <v>34.293738210689469</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7.7932142857142876</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
-        <v>29.47385383450748</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>2068</v>
-      </c>
-      <c r="F5" s="9">
-        <v>33.437432328721144</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2073</v>
-      </c>
-      <c r="H5" s="9">
-        <f>AVERAGE(F2:F10)</f>
-        <v>33.938959012738195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7.4165517241379311</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
-        <v>27.899526713985555</v>
-      </c>
-      <c r="C6" s="9">
-        <f t="shared" ref="C6:C20" si="0">AVERAGE(B2:B6)</f>
-        <v>27.249979524085763</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>2069</v>
-      </c>
-      <c r="F6" s="9">
-        <v>40.383632436518269</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2074</v>
-      </c>
-      <c r="H6" s="9">
-        <f>AVERAGE(F2:F11)</f>
-        <v>32.570679420194196</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.2666658774978039</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
-        <v>35.071851712796693</v>
-      </c>
-      <c r="C7" s="9">
-        <f t="shared" si="0"/>
-        <v>28.333421242247617</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>2070</v>
-      </c>
-      <c r="F7" s="9">
-        <v>43.504658867151448</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2075</v>
-      </c>
-      <c r="H7" s="9">
-        <f>AVERAGE(F3:F12)</f>
-        <v>31.849596743833594</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.6046827948598317</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
-        <v>41.341171359203706</v>
-      </c>
-      <c r="C8" s="9">
-        <f t="shared" si="0"/>
-        <v>31.467883426495444</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>2071</v>
-      </c>
-      <c r="F8" s="9">
-        <v>37.628315581057855</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2076</v>
-      </c>
-      <c r="H8" s="9">
-        <f>AVERAGE(F4:F13)</f>
-        <v>31.202853502196092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7.4193799428620064</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
-        <v>33.400758023112282</v>
-      </c>
-      <c r="C9" s="9">
-        <f t="shared" si="0"/>
-        <v>33.437432328721144</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>2072</v>
-      </c>
-      <c r="F9" s="9">
-        <v>32.344582279238224</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2077</v>
-      </c>
-      <c r="H9" s="9">
-        <f>AVERAGE(F5:F14)</f>
-        <v>30.401729266825555</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8">
-        <v>64.204854373493106</v>
-      </c>
-      <c r="C10" s="9">
-        <f t="shared" si="0"/>
-        <v>40.383632436518269</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>2073</v>
-      </c>
-      <c r="F10" s="9">
-        <v>31.100725429128016</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2078</v>
-      </c>
-      <c r="H10" s="9">
-        <f>AVERAGE(F6:F15)</f>
-        <v>29.378720140080144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9">
-        <f t="shared" si="0"/>
-        <v>43.504658867151448</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" ref="D11:D20" si="1">AVERAGE(B2:B11)</f>
-        <v>34.474281454337174</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2074</v>
-      </c>
-      <c r="F11" s="9">
-        <v>20.256163087298201</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2079</v>
-      </c>
-      <c r="H11" s="9">
-        <f>AVERAGE(F7:F16)</f>
-        <v>27.953163401999632</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
-        <v>11.566478568422315</v>
-      </c>
-      <c r="C12" s="9">
-        <f t="shared" si="0"/>
-        <v>37.628315581057855</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="1"/>
-        <v>32.464485392829943</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2075</v>
-      </c>
-      <c r="F12" s="9">
-        <v>20.039152760479663</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.1974053581375941</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
-        <v>20.206238151925209</v>
-      </c>
-      <c r="C13" s="9">
-        <f t="shared" si="0"/>
-        <v>32.344582279238224</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" si="1"/>
-        <v>31.857527361047794</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2076</v>
-      </c>
-      <c r="F13" s="9">
-        <v>21.865988825872662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6.3538269489189139</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
-        <v>28.425330622671442</v>
-      </c>
-      <c r="C14" s="9">
-        <f t="shared" si="0"/>
-        <v>31.100725429128016</v>
-      </c>
-      <c r="D14" s="9">
-        <f t="shared" si="1"/>
-        <v>32.398895928901972</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2077</v>
-      </c>
-      <c r="F14" s="9">
-        <v>23.456641072790106</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5.0463035063372086</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
-        <v>20.826605006173835</v>
-      </c>
-      <c r="C15" s="9">
-        <f t="shared" si="0"/>
-        <v>20.256163087298201</v>
-      </c>
-      <c r="D15" s="9">
-        <f t="shared" si="1"/>
-        <v>31.438090503531573</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2078</v>
-      </c>
-      <c r="F15" s="9">
-        <v>23.207341061267083</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4.6915891744913871</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
-        <v>19.171111453205519</v>
-      </c>
-      <c r="C16" s="9">
-        <f t="shared" si="0"/>
-        <v>20.039152760479663</v>
-      </c>
-      <c r="D16" s="9">
-        <f t="shared" si="1"/>
-        <v>30.468266585667127</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2079</v>
-      </c>
-      <c r="F16" s="9">
-        <v>26.128065055713101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10.01535598318563</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
-        <v>20.700658895387296</v>
-      </c>
-      <c r="C17" s="9">
-        <f t="shared" si="0"/>
-        <v>21.865988825872662</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" si="1"/>
-        <v>28.87146738373275</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7">
-        <v>28.159499386512433</v>
-      </c>
-      <c r="C18" s="9">
-        <f t="shared" si="0"/>
-        <v>23.456641072790106</v>
-      </c>
-      <c r="D18" s="9">
-        <f t="shared" si="1"/>
-        <v>27.406837164544825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.7755237085340383</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7">
-        <v>27.178830565056334</v>
-      </c>
-      <c r="C19" s="9">
-        <f t="shared" si="0"/>
-        <v>23.207341061267083</v>
-      </c>
-      <c r="D19" s="9">
-        <f t="shared" si="1"/>
-        <v>26.7155118914275</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6.9464170368349656</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8">
-        <v>35.43022497840392</v>
-      </c>
-      <c r="C20" s="9">
-        <f t="shared" si="0"/>
-        <v>26.128065055713101</v>
-      </c>
-      <c r="D20" s="9">
-        <f t="shared" si="1"/>
-        <v>23.518330847528699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I21" s="4" t="s">
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I22" s="4" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I23" s="4" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>132</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I25" s="4" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I26" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K27" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I28" s="4" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K29" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I30" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I31" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I32" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I33" s="12" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>217</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I34" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="K35" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I36" s="4" t="s">
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I37" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I38" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="J39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I40" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I41" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="J42" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="J43" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="J44" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="J47" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="J48" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J49" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J51" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J52" s="4" t="s">
-        <v>242</v>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2042,11 +3601,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -2342,277 +3901,6 @@
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5.739642857142857</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9951724137931039</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.9907142857142861</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4.2092857142857154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3.291785714285715</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3.514929160276993</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3.033500000000001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3.7308172463452611</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3.3489285714285719</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3.7784792857142731</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3.156774316290142</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8.9095651408804155</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3.0200833585675162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4.4979327721644848</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +3912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -2632,18 +3920,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.9472413793103449</v>
+        <v>5.739642857142857</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2651,18 +3939,18 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.5367857142857142</v>
+        <v>2.9951724137931039</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4.1793103448275861</v>
+        <v>2.9907142857142861</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2670,7 +3958,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.3537931034482762</v>
+        <v>4.2092857142857154</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2681,18 +3969,18 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.4782758620689651</v>
+        <v>3.291785714285715</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.9233275691646701</v>
+        <v>3.514929160276993</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -2700,18 +3988,18 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.7159457160206801</v>
+        <v>3.033500000000001</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2.9859386894491</v>
+        <v>3.7308172463452611</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2730,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2740,7 +4028,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2.6048275862068961</v>
+        <v>3.3489285714285719</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -2751,27 +4039,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2.912123793103305</v>
+        <v>3.7784792857142731</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2.748411499999992</v>
+        <v>3.156774316290142</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3.3080315000000118</v>
-      </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -2781,7 +4066,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5.0423401666666896</v>
+        <v>8.9095651408804155</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -2789,18 +4074,18 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2.644820080789732</v>
+        <v>3.0200833585675162</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3.7605249696786198</v>
+        <v>4.4979327721644848</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -2816,12 +4101,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2831,7 +4116,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,12 +4131,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,7 +4146,7 @@
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
@@ -2871,22 +4156,22 @@
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2895,6 +4180,280 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.9472413793103449</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.5367857142857142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.1793103448275861</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3.3537931034482762</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.4782758620689651</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.9233275691646701</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.7159457160206801</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.9859386894491</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.6048275862068961</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.912123793103305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.748411499999992</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.3080315000000118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5.0423401666666896</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.644820080789732</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.7605249696786198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -3173,9 +4732,1088 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="55.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="54.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="56.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="6" t="str">
+        <f>A1</f>
+        <v>Fiscal Year</v>
+      </c>
+      <c r="F1" s="6" t="str">
+        <f>C1</f>
+        <v>5-years moving average</v>
+      </c>
+      <c r="G1" s="6" t="str">
+        <f>E1</f>
+        <v>Fiscal Year</v>
+      </c>
+      <c r="H1" s="6" t="str">
+        <f>D1</f>
+        <v>10-years moving average</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10">
+        <v>29.654643121987391</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5">
+        <v>27.249979524085763</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5">
+        <v>34.474281454337174</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>25.668860437964582</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5">
+        <v>28.333421242247617</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5">
+        <v>32.464485392829943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10">
+        <v>23.553013511983792</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>31.467883426495444</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5">
+        <v>31.857527361047794</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10">
+        <v>29.47385383450748</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>33.437432328721144</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5">
+        <v>32.398895928901972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
+        <v>27.899526713985555</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:C20" si="0">AVERAGE(B2:B6)</f>
+        <v>27.249979524085763</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>40.383632436518269</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>31.438090503531573</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10">
+        <v>35.071851712796693</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>28.333421242247617</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43.504658867151448</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5">
+        <v>30.468266585667127</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10">
+        <v>41.341171359203706</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>31.467883426495444</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5">
+        <v>37.628315581057855</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5">
+        <v>28.87146738373275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10">
+        <v>33.400758023112282</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>33.437432328721144</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5">
+        <v>32.344582279238224</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5">
+        <v>27.406837164544825</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>34.42832695227456</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5">
+        <v>31.100725429128016</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5">
+        <v>26.7155118914275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>36.604593698370898</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11:D20" si="1">AVERAGE(B2:B11)</f>
+        <v>30.757959839442687</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5">
+        <v>20.256163087298201</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5">
+        <v>23.518330847528699</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>37.370964691157994</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>30.915576513364869</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5">
+        <v>20.039152760479663</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10">
+        <v>20.206238151925209</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>26.803498087518747</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>30.135201901073533</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5">
+        <v>21.865988825872662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10">
+        <v>28.425330622671442</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>24.315784387298326</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>30.831247202600341</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5">
+        <v>23.456641072790106</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10">
+        <v>20.826605006173835</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>23.152724593590165</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>29.595925941409821</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="5">
+        <v>23.207341061267083</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10">
+        <v>19.171111453205519</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>22.157321308494005</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>28.349009475584101</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5">
+        <v>26.128065055713101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10">
+        <v>20.700658895387296</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>21.865988825872662</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>26.295981930239897</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10">
+        <v>28.159499386512433</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>23.456641072790106</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>24.412885934141148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10">
+        <v>27.178830565056334</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>23.207341061267083</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>23.524039154418865</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10">
+        <v>35.43022497840392</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>26.128065055713101</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>25.012312382416997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K27" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K29" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I30" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I32" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I33" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I34" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="K35" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I40" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J42" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J43" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J44" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J47" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="J48" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J49" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J51" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J52" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.777499999999999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.445333333333334</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3.2539999999999991</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.6653333333333331</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.6501231996671408</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.3137632262452978</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.1172206535950409</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4.0402320991887732</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.9287742020083489</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3.8775157376742428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4.3116006207448034</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6.4863571180002841</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6.5899147542627814</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.182863686396801</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.8008980013527296</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -3183,64 +5821,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.777499999999999</v>
+        <v>5.464999999999999</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3.45</v>
+        <v>43.906333333333343</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4.445333333333334</v>
+        <v>13.686</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.2539999999999991</v>
+        <v>9.7532258064516117</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.6653333333333331</v>
+        <v>7.1656666666666649</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.6501231996671408</v>
+        <v>5.0839649604135282</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3248,42 +5889,42 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.3137632262452978</v>
+        <v>17.821347092836909</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.1172206535950409</v>
+        <v>4.8157106113790578</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4.0402320991887732</v>
+        <v>10.18660468926463</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -3291,29 +5932,29 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.9287742020083489</v>
+        <v>9.615231257263364</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3.8775157376742428</v>
+        <v>10.442263001621511</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4.3116006207448034</v>
+        <v>9.3490176133060388</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3321,133 +5962,138 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6.4863571180002841</v>
+        <v>14.90803804318691</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6.5899147542627814</v>
+        <v>14.90803804318691</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3.182863686396801</v>
+        <v>16.403276908618398</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4.8008980013527296</v>
+        <v>23.034086627873702</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>56</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>57</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3455,299 +6101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5.464999999999999</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>43.906333333333343</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>13.686</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>9.7532258064516117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7.1656666666666649</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5.0839649604135282</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>17.821347092836909</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4.8157106113790578</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10.18660468926463</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9.615231257263364</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10.442263001621511</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9.3490176133060388</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14.90803804318691</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14.90803804318691</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16.403276908618398</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>23.034086627873702</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -4024,11 +6378,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -4304,11 +6658,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4584,7 +6938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -4864,7 +7218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -5142,278 +7496,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7.8793103448275863</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7.4399999999999977</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5.8239285714285716</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>7.7932142857142876</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7.4165517241379311</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7.2666658774978039</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7.6046827948598317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7.4193799428620064</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5.1974053581375941</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6.3538269489189139</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5.0463035063372086</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4.6915891744913871</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10.01535598318563</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8.7755237085340383</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6.9464170368349656</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>